--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474320.197374111</v>
+        <v>3472432.61585771</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529868.5862748383</v>
+        <v>778763.9788161067</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>143.7459688030389</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>181.9787044875763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>126.7632886126198</v>
+        <v>84.16428381810806</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>102.1581338123295</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>163.8950372953905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053142</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,13 +1069,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.6352909288865</v>
       </c>
       <c r="H8" t="n">
-        <v>118.8460297402134</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.0537032279751</v>
+        <v>13.40689407064311</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206848</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.5953869016533</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>39.75938800174333</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>232.148403473552</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750035</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>173.5954779282455</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.70811713027418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>76.61663461570848</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>42.12214557694063</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U46" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.455337753612</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="C2" t="n">
-        <v>1167.455337753612</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="D2" t="n">
-        <v>809.189639146862</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>809.189639146862</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,7 +4343,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.455337753612</v>
+        <v>1894.539591564835</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036446</v>
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036446</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S4" t="n">
-        <v>570.6683391887234</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="T4" t="n">
-        <v>343.3601518573251</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="U4" t="n">
-        <v>343.3601518573251</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="V4" t="n">
-        <v>343.3601518573251</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>613.6976369609572</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>568.1189207638402</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>157.1330159742326</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2476.569858826099</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2476.569858826099</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>2476.569858826099</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>2476.569858826099</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>327.455452512359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>487.2784796319623</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="C13" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429516</v>
+        <v>755.1831334811266</v>
       </c>
       <c r="W13" t="n">
-        <v>644.1080300429516</v>
+        <v>465.7659634441659</v>
       </c>
       <c r="X13" t="n">
-        <v>644.1080300429516</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028593</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,16 +5273,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,31 +5291,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>836.471721275012</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1604.839867667474</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605669</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>524.8400981009108</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C19" t="n">
-        <v>524.8400981009108</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1035.049847281402</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>745.632677244441</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X19" t="n">
-        <v>745.632677244441</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y19" t="n">
-        <v>524.8400981009108</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5938,19 +5938,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5981,34 +5981,34 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6075,7 +6075,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383441</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>499.6581354340557</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340557</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,13 +6245,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706318</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,25 +6449,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248433</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783072</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473422</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463198</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297802</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818922</v>
+        <v>957.9946671386972</v>
       </c>
       <c r="X31" t="n">
-        <v>860.1328071870026</v>
+        <v>785.7659815220507</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.1010933248433</v>
+        <v>620.7342676598912</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7254,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506727</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7570,10 +7570,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,16 +7725,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254965</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10923,7 +10923,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11397,7 +11397,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>30.83857574491583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>79.4309254770908</v>
       </c>
     </row>
     <row r="14">
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>212.3782553220847</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>54.37459486303896</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338569</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>78.54216539558249</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.8765362218206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>48.01208893767176</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>128.3842531835395</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541045</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541046</v>
       </c>
       <c r="H2" t="n">
         <v>664749.4015541048</v>
@@ -26341,7 +26341,7 @@
         <v>691597.6334869595</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="M2" t="n">
         <v>697885.5043846406</v>
@@ -26350,10 +26350,10 @@
         <v>697885.5043846406</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905757879</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905757959</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758411</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758811</v>
-      </c>
       <c r="H4" t="n">
-        <v>787.7936905758629</v>
+        <v>787.7936905758888</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758216</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189639</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189633</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,13 +26494,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739325</v>
+        <v>-114000.592073932</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406127</v>
+        <v>475967.2871406126</v>
       </c>
       <c r="D6" t="n">
         <v>475967.2871406124</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791587</v>
+        <v>46716.78631194377</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.2819148123</v>
+        <v>571876.8227888404</v>
       </c>
       <c r="G6" t="n">
-        <v>571974.2819148122</v>
+        <v>571876.8227888403</v>
       </c>
       <c r="H6" t="n">
-        <v>571974.2819148123</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="I6" t="n">
-        <v>571974.2819148123</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="J6" t="n">
-        <v>395551.062722219</v>
+        <v>395453.6035962469</v>
       </c>
       <c r="K6" t="n">
-        <v>531854.4034491187</v>
+        <v>531835.9097111842</v>
       </c>
       <c r="L6" t="n">
-        <v>566620.9108318519</v>
+        <v>566620.9108318521</v>
       </c>
       <c r="M6" t="n">
-        <v>442162.8023988815</v>
+        <v>442162.8023988817</v>
       </c>
       <c r="N6" t="n">
         <v>576963.8176327188</v>
       </c>
       <c r="O6" t="n">
-        <v>576963.8176327189</v>
+        <v>576963.8176327188</v>
       </c>
       <c r="P6" t="n">
         <v>532801.2123298733</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,16 +26790,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>210.9370728176441</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>224.8973412541351</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>85.38225033739914</v>
+        <v>127.9812551319108</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>311.6260362084655</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>163.8572211747444</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.1488790919085</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0767430241438</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.5309501241197</v>
+        <v>205.1777592814517</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.839431673017436e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.278702997365884e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28849,10 +28849,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.418346201497235e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
   </sheetData>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576416</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034983</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>175.1732645054592</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,22 +32072,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>245.2687781552864</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>315.8821359054327</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>392.6063366508803</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32968,7 +32968,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.0697047810465</v>
@@ -33023,10 +33023,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33035,7 +33035,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4869287318326</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,10 +33971,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33983,7 +33983,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,7 +33995,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34469,13 +34469,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856232</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>523.1739267656794</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>593.2694404155067</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>548.1681014290177</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>740.6069989111005</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
@@ -36683,7 +36683,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197793</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>343.1107267700522</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
@@ -37631,7 +37631,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,10 +37865,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,10 +38102,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
